--- a/storage/app/public/template_upload/Format_Upload_APBDes.xlsx
+++ b/storage/app/public/template_upload/Format_Upload_APBDes.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="APBDES" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>no_akun</t>
   </si>
@@ -25,12 +23,6 @@
   </si>
   <si>
     <t>jumlah</t>
-  </si>
-  <si>
-    <t>bulan</t>
-  </si>
-  <si>
-    <t>tahun</t>
   </si>
   <si>
     <t>412-01</t>
@@ -116,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -124,9 +116,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -433,7 +422,7 @@
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -443,123 +432,63 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>2000000</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>1500000</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>500000</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>3900000</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
         <v>235000</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2018</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>